--- a/data/financial_statements/sofp/BAC.xlsx
+++ b/data/financial_statements/sofp/BAC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,625 +581,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>800337000000.0001</v>
+      </c>
+      <c r="C2">
         <v>781130000000.0001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>771300000000.0001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>895087000000.0001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>853165000000.0001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>836872000000.0001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>827713000000.0001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>869988000000.0001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>889921000000.0001</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>888339000000.0001</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>973061000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>757965000000.0001</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>673090000000.0001</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>699930000000.0001</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>680150000000.0001</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>687182000000.0001</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>660377000000.0001</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>660078000000.0001</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>609317000000.0001</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>655417000000.0001</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>590692000000.0001</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>609407000000.0001</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>602426000000.0001</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>599769000000.0001</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>536032000000.0001</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>558599000000.0001</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>567867000000.0001</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>585617000000.0001</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>536106000000.0001</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>563610000000.0001</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>560519000000.0001</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>563529000000.0001</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>529707000000.0001</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>548317000000.0001</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>587946000000.0001</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>575686000000.0001</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>534183000000.0001</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>548895000000.0001</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>527146000000.0001</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>557371000000.0001</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>1907702000000</v>
+      </c>
+      <c r="C3">
         <v>1885134000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1876640000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1970020000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1907800000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1835866000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1808790000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1831207000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1872444000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1890033000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2015389000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1870084000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1712195000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1725778000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1693168000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1683013000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1673852000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1642683000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1599415000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1646589000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1590101000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1594929000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1573441000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1569184000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1499303000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1516617000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1526181000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1537691000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1486620000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1510927000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1505319000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1501257000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1471360000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1499527000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1558709000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1551737000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1515798000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1538921000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1509556000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1536781000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>11510000000</v>
+      </c>
+      <c r="C4">
         <v>11117000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>11016000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10820000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10833000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10684000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10747000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10803000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>11000000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10902000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10790000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10792000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>10561000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>10493000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>10426000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>10251000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>9906000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>9680000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>9537000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>9399000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>9247000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>8971000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>8904000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>9319000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>9139000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>9133000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>9150000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>9358000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>9485000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>9554000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>9700000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>9833000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>10049000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>9987000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>10145000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>10351000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>10475000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>10703000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>10836000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>11085000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>862819000000.0001</v>
+      </c>
+      <c r="C5">
         <v>879958000000.0001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>932910000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>969880000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>982627000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>968617000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>940314000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>856912000000.0001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>684850000000.0001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>584397000000.0001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>471861000000.0001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>475852000000.0001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>472197000000.0001</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>444594000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>446075000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>440674000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>441753000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>446107000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>438269000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>426837000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>440130000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>439209000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>434517000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>428045000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>430731000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>434914000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>411949000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>400311000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>406888000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>391651000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>392379000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>383989000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>380461000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>368124000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>352883000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>340696000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>323945000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>320998000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>336403000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>354709000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>69022000000</v>
@@ -1100,13 +1229,13 @@
         <v>69022000000</v>
       </c>
       <c r="F6">
-        <v>69023000000</v>
+        <v>69022000000</v>
       </c>
       <c r="G6">
         <v>69023000000</v>
       </c>
       <c r="H6">
-        <v>68951000000</v>
+        <v>69023000000</v>
       </c>
       <c r="I6">
         <v>68951000000</v>
@@ -1148,1598 +1277,1637 @@
         <v>68951000000</v>
       </c>
       <c r="V6">
+        <v>68951000000</v>
+      </c>
+      <c r="W6">
         <v>73834000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>74080000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>74345000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>71716000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>75389000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>75365000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>75970000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>76616000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>76777000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>77484000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>77561000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>77919000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>78876000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>79277000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>79944000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>80470000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>80802000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>81873000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>82205000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>199653000000</v>
+      </c>
+      <c r="C7">
         <v>227722000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>222018000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>218481000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>199213000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>201256000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>201020000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>202119000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>182382000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>184169000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>174697000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>194275000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>170175000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>176514000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>177272000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>174275000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>160045000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>171412000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>175498000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>176702000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>172805000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>166953000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>163587000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>166808000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>177178000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>159261000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>163964000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>162168000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>164678000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>164097000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>164152000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>170905000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>164745000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>167099000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>169543000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>167123000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>171585000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>175229000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>184652000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>190039000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1143004000000</v>
+      </c>
+      <c r="C8">
         <v>1187819000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1234966000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1268203000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1261695000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1249580000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1221104000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1138785000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>947183000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>848419000000.0001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>726299000000.0001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>749870000000.0001</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>721884000000.0001</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>700552000000.0001</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>702724000000.0001</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>694151000000.0001</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>680655000000.0001</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>696150000000.0001</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>692255000000.0001</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>681889000000.0001</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>691133000000.0001</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>688967000000.0001</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>681088000000.0001</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>678517000000.0001</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>688764000000.0001</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>678697000000.0001</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>660428000000.0001</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>647807000000.0001</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>657667000000.0001</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>642079000000.0001</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>643715000000.0001</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>642288000000.0001</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>633174000000.0001</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>624086000000.0001</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>611848000000.0001</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>598114000000.0001</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>586475000000.0001</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>587732000000.0001</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>613764000000.0001</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>638038000000.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>3050706000000</v>
+      </c>
+      <c r="C9">
         <v>3072953000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3111606000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3238223000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3169495000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3085446000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3029894000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2969992000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2819627000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2738452000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2741688000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2619954000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2434079000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2426330000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2395892000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2377164000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2354507000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2338833000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2291670000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2328478000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2281234000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2283896000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>2254529000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>2247701000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>2188067000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>2195314000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>2186609000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>2185498000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>2144287000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>2153006000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>2149034000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>2143545000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>2104534000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>2123613000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2170557000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>2149851000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>2102273000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>2126653000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>2123320000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>2174819000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>222567000000</v>
+      </c>
+      <c r="C10">
         <v>236671000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>232193000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>239474000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>216082000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>227706000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>235422000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>221167000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>189644000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>208630000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>197022000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>200161000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>189313000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>232749000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>222192000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>202459000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>207177000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>200635000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>218525000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>216601000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>209531000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>222469000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>232901000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>230260000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>194235000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>205084000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>211113000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>219841000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>202389000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>233756000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>252927000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>237028000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>232449000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>251200000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>263702000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>254517000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>244105000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>267043000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>279079000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>290297000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1930341000000</v>
+      </c>
+      <c r="C11">
         <v>1938097000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1984349000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2072409000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2064446000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1964804000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1909142000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1884938000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1795480000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1702880000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1718666000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1583325000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1434803000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1392836000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1375093000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1379337000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1381476000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1345649000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1309691000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1328664000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1309545000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1284417000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1262980000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1272141000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1260934000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1232895000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1216091000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1217261000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1197259000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1162009000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1149560000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1153168000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1118936000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1111981000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1134329000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1133650000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1119271000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1110118000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1080783000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1095183000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>223814000000</v>
+      </c>
+      <c r="C12">
         <v>224615000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>214522000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>219625000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>200419000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>191572000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>184607000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>193563000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>181799000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>175960000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>175302000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>183029000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>182798000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>172286000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>168658000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>173681000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>165026000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>170138000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>152010000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>150615000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>152123000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>157670000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>150925000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>142051000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>147369000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>141634000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>140876000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>137705000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>146286000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>143934000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>135295000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>138278000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>145438000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>150531000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>151055000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>149024000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>135662000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>134598000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>139033000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>134033000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>237843000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>237682000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>247044000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>229904000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>229753000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>244049000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>236733000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>211923000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>214092000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>210506000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>220073000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>215430000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>79844000000</v>
+      </c>
+      <c r="C14">
         <v>84768000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>97302000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>117122000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>100690000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>112217000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>110084000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>102788000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>71320000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>84681000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>80912000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>77151000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>83270000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>78642000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>82150000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>84410000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>68220000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>89964000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>87028000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>100218000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>81187000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>86434000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>77933000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>77283000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>63031000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>76998000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>74282000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>74003000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>66963000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>74252000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>72596000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>74791000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>74192000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>76867000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>88342000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>89076000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>83469000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>82713000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>82381000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>90547000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>2456566000000</v>
+      </c>
+      <c r="C15">
         <v>2484151000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2528366000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2648630000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2581637000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2496299000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2439255000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2402456000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2238243000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2172151000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2171902000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2043666000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1890184000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1876513000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1848093000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1839887000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1821899000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1806386000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1767254000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1796098000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1752386000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1750990000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1724739000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1721735000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1665569000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1656611000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1642362000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1648810000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1612897000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1613951000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1610378000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1603265000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1571015000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1590579000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1637428000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1626267000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1582507000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1594472000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1581276000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1610060000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>275982000000</v>
+      </c>
+      <c r="C16">
         <v>269122000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>275697000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>278710000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>280117000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>278621000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>274604000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>251211000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>262934000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>255723000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>261638000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>256712000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>240856000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>243405000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>238011000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>233929000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>229392000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>234100000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>226595000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>232256000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>227402000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>228666000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>223923000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>221385000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>216823000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>225136000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>229617000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>232849000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>236764000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>237288000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>243414000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>237858000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>243139000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>250115000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>257071000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>254785000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>249674000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>255331000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>262480000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>279641000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>44961000000</v>
+      </c>
+      <c r="C17">
         <v>50156000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>38425000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>44266000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>37675000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>38062000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>38916000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>42325000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>45526000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>41728000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>42511000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>54658000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>38229000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>38025000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>38380000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>36338000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>37891000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>36189000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>33605000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>33900000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>34300000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>31781000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>34880000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>36428000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>39480000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>43484000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>47561000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>41063000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>38450000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>45862000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>43583000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>52234000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>46909000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>44238000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>38647000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>36911000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>37407000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>44568000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>48532000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>47825000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>320943000000</v>
+      </c>
+      <c r="C18">
         <v>319278000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>314122000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>322976000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>317792000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>316683000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>313520000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>293536000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>308460000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>297451000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>304149000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>311370000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>279085000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>281430000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>276391000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>270267000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>267283000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>270289000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>260200000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>266156000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>261702000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>260447000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>258803000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>257813000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>256303000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>268620000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>277178000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>273912000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>275214000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>283150000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>286997000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>290092000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>290048000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>294353000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>295718000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>291696000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>287081000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>299899000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>311012000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>327466000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>2777509000000</v>
+      </c>
+      <c r="C19">
         <v>2803429000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2842488000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2971606000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2899429000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2812982000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2752775000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2695992000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2546703000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2469602000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2476051000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2355036000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2169269000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2157943000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2124484000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2110154000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2089182000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2076675000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2027454000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2062254000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2014088000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>2011437000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1983542000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1979548000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1921872000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>1925231000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>1919540000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1922722000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1888111000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>1897101000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1897375000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1893357000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>1861063000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1884932000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1933146000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1917963000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1869588000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1894371000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1892288000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1937526000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>29134000000</v>
+        <v>28397000000</v>
       </c>
       <c r="C20">
         <v>29134000000</v>
       </c>
       <c r="D20">
+        <v>29134000000</v>
+      </c>
+      <c r="E20">
         <v>27137000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>24708000000</v>
-      </c>
-      <c r="F20">
-        <v>23441000000</v>
       </c>
       <c r="G20">
         <v>23441000000</v>
       </c>
       <c r="H20">
+        <v>23441000000</v>
+      </c>
+      <c r="I20">
         <v>24319000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>24510000000</v>
-      </c>
-      <c r="J20">
-        <v>23427000000</v>
       </c>
       <c r="K20">
         <v>23427000000</v>
@@ -2748,16 +2916,16 @@
         <v>23427000000</v>
       </c>
       <c r="M20">
+        <v>23427000000</v>
+      </c>
+      <c r="N20">
         <v>23401000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>23606000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>24689000000</v>
-      </c>
-      <c r="P20">
-        <v>22326000000</v>
       </c>
       <c r="Q20">
         <v>22326000000</v>
@@ -2766,19 +2934,19 @@
         <v>22326000000</v>
       </c>
       <c r="S20">
+        <v>22326000000</v>
+      </c>
+      <c r="T20">
         <v>23181000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>24672000000</v>
-      </c>
-      <c r="U20">
-        <v>22323000000</v>
       </c>
       <c r="V20">
         <v>22323000000</v>
       </c>
       <c r="W20">
-        <v>25220000000</v>
+        <v>22323000000</v>
       </c>
       <c r="X20">
         <v>25220000000</v>
@@ -2793,10 +2961,10 @@
         <v>25220000000</v>
       </c>
       <c r="AB20">
+        <v>25220000000</v>
+      </c>
+      <c r="AC20">
         <v>24342000000</v>
-      </c>
-      <c r="AC20">
-        <v>22273000000</v>
       </c>
       <c r="AD20">
         <v>22273000000</v>
@@ -2808,792 +2976,813 @@
         <v>22273000000</v>
       </c>
       <c r="AG20">
+        <v>22273000000</v>
+      </c>
+      <c r="AH20">
         <v>19309000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>17913000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>14846000000</v>
-      </c>
-      <c r="AJ20">
-        <v>13352000000</v>
       </c>
       <c r="AK20">
         <v>13352000000</v>
       </c>
       <c r="AL20">
+        <v>13352000000</v>
+      </c>
+      <c r="AM20">
         <v>13315000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>14241000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>18780000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>58953000000</v>
+      </c>
+      <c r="C21">
         <v>59460000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>59499000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>59968000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>62398000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>69612000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>79242000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>83071000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>85982000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>85954000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>85794000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>85745000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>91723000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>99215000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>106619000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>112838000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>118896000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>123921000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>128822000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>133532000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>138089000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>142818000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>142744000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>144782000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>147038000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>148261000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>149554000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>150774000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>151042000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>151841000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>152638000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>153410000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>153458000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>153472000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>153468000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>153696000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>155293000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>156371000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>157192000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>158157000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>207003000000</v>
+      </c>
+      <c r="C22">
         <v>201957000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>197159000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>192929000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>188064000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>183007000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>177499000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>170082000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>164088000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>160447000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>157578000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>155866000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>156319000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>151183000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>147577000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>141888000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>136314000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>130747000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>125546000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>120298000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>113816000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>113486000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>109628000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>105467000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>101225000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>98303000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>93623000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>90270000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>88219000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>85485000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>81938000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>77472000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>75024000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>72811000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>73808000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>71877000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>72497000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>69419000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>67308000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>63844000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>244800000000</v>
+      </c>
+      <c r="C23">
         <v>240390000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>239984000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>239480000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>245358000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>249023000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>253678000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>249681000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>248414000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>245423000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>242210000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>241491000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>241409000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>244781000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>246719000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>244684000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>242999000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>239832000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>241035000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>241552000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>244823000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>250136000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>245767000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>242933000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>240975000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>244863000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>241849000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>238434000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>233903000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>233632000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>229386000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>227915000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>224162000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>220768000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>222565000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>218536000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>219333000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>218967000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>216791000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>218513000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>273197000000</v>
+      </c>
+      <c r="C24">
         <v>269524000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>269118000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>266617000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>270066000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>272464000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>277119000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>274000000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>272924000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>268850000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>265637000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>264918000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>264810000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>268387000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>271408000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>267010000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>265325000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>262158000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>264216000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>266224000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>267146000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>272459000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>270987000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>268153000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>266195000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>270083000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>267069000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>262776000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>256176000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>255905000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>251659000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>250188000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>243471000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>238681000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>237411000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>231888000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>232685000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>232282000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>231032000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>237293000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>3050706000000</v>
+      </c>
+      <c r="C25">
         <v>3072953000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>3111606000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>3238223000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3169495000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3085446000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3029894000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2969992000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2819627000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2738452000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2741688000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2619954000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2434079000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2426330000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2395892000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2377164000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2354507000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2338833000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2291670000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2328478000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>2281234000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>2283896000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>2254529000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>2247701000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>2188067000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>2195314000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>2186609000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>2185498000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>2144287000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>2153006000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>2149034000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>2143545000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>2104534000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>2123613000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>2170557000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>2149851000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>2102273000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>2126653000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>2123320000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>2174819000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>7996777000</v>
+      </c>
+      <c r="C26">
         <v>8024450000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>8035222000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>8062102000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>8077831000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>8241244000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>8487151000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>8589731000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>8650814000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>8661523000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>8664082000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>8675487000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>8836149000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>9079265000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>9342602000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>9568389000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>9669286000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>9858252000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>10012720000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>10175910000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>10287300000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>10457470000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>9878118000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>9974189000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>10052630000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>10123840000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>10216780000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>10312660000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>10380260000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>10427300000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>10471840000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>10520400000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>10516540000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>10515890000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>10515830000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>10530040000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>10591810000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>10683280000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>10743100000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>10822380000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>4118000</v>
+        <v>4088000</v>
       </c>
       <c r="C27">
         <v>4118000</v>
       </c>
       <c r="D27">
+        <v>4118000</v>
+      </c>
+      <c r="E27">
         <v>4038000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3940000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3888000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>3887000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>3924000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>3931000</v>
-      </c>
-      <c r="J27">
-        <v>3887000</v>
       </c>
       <c r="K27">
         <v>3887000</v>
@@ -3605,13 +3794,13 @@
         <v>3887000</v>
       </c>
       <c r="N27">
+        <v>3887000</v>
+      </c>
+      <c r="O27">
         <v>3896000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>3939000</v>
-      </c>
-      <c r="P27">
-        <v>3843000</v>
       </c>
       <c r="Q27">
         <v>3843000</v>
@@ -3620,19 +3809,19 @@
         <v>3843000</v>
       </c>
       <c r="S27">
+        <v>3843000</v>
+      </c>
+      <c r="T27">
         <v>3873000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>3931000</v>
-      </c>
-      <c r="U27">
-        <v>3838000</v>
       </c>
       <c r="V27">
         <v>3838000</v>
       </c>
       <c r="W27">
-        <v>3887000</v>
+        <v>3838000</v>
       </c>
       <c r="X27">
         <v>3887000</v>
@@ -3644,13 +3833,13 @@
         <v>3887000</v>
       </c>
       <c r="AA27">
+        <v>3887000</v>
+      </c>
+      <c r="AB27">
         <v>3887800</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>3851800</v>
-      </c>
-      <c r="AC27">
-        <v>3768000</v>
       </c>
       <c r="AD27">
         <v>3768000</v>
@@ -3659,19 +3848,19 @@
         <v>3768000</v>
       </c>
       <c r="AF27">
+        <v>3768000</v>
+      </c>
+      <c r="AG27">
         <v>3767800</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>3647800</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>3591800</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>3467800</v>
-      </c>
-      <c r="AJ27">
-        <v>3407800</v>
       </c>
       <c r="AK27">
         <v>3407800</v>
@@ -3680,375 +3869,387 @@
         <v>3407800</v>
       </c>
       <c r="AM27">
+        <v>3407800</v>
+      </c>
+      <c r="AN27">
         <v>3445800</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>3685400</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>204175000000</v>
+      </c>
+      <c r="C28">
         <v>200502000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>200096000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>197595000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>201044000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>203441000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>208096000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>205049000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>203973000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>199899000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>196686000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>195967000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>195859000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>199436000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>202457000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>198059000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>196374000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>193207000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>195265000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>197273000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>198195000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>198625000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>196907000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>193808000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>194479000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>194694000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>191704000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>186806000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>179560000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>179128000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>174175000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>172627000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>165552000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>159805000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>158134000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>151944000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>152215000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>151480000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>149159000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>155088000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>-524355000000.0001</v>
+      </c>
+      <c r="C29">
         <v>-274165000000.0001</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-257921000000.0001</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-369333000000.0002</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-343144000000.0002</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-328498000000.0002</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-309060000000.0002</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-382044000000.0002</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-415064000000.0002</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-418524000000.0002</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-500917000000.0001</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-281180000000.0002</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-216804000000.0001</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-456525000000.0001</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-442139000000.0002</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-453253000000.0001</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-430985000000.0002</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-425978000000.0002</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-382722000000.0002</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-423161000000.0002</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-363290000000.0002</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-380741000000.0002</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-378503000000.0002</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-378384000000.0002</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-319209000000.0002</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-333463000000.0002</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-338250000000.0002</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-352768000000.0002</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-299342000000.0002</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-326322000000.0002</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-317105000000.0002</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-325671000000.0002</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-286568000000.0002</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-298202000000.0002</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-330875000000.0002</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-320901000000.0002</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-284509000000.0002</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-293564000000.0002</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-264666000000.0001</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-277730000000.0002</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>275982000000</v>
+      </c>
+      <c r="C30">
         <v>506965000000.0001</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>513379000000.0001</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>525754000000.0001</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>510021000000.0001</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>508374000000.0001</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>518653000000.0001</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>487944000000.0001</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>474857000000.0001</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>469815000000.0001</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>472144000000.0001</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>476785000000.0001</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>456286000000.0001</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>243405000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>238011000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>233929000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>229392000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>234100000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>226595000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>232256000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>227402000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>228666000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>223923000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>221385000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>216823000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>225136000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>229617000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>232849000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>236764000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>237288000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>243414000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>237858000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>243139000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>250115000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>257071000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>254785000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>249674000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>255331000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>262480000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>279641000000</v>
       </c>
     </row>
